--- a/output/google_maps_data_Wisata_Sleman.xlsx
+++ b/output/google_maps_data_Wisata_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>-7.737982</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.737982</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.385043</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Green+Kayen/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59e84f8e1e81:0x892933b7e11930d8!8m2!3d-7.7379817!4d110.3850433!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRjelpYU214QlJSQULgAQD6AQQIABAp!16s%2Fg%2F11n2h0nznl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Green+Kayen/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59e84f8e1e81:0x892933b7e11930d8!8m2!3d-7.7379817!4d110.3850433!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRjelpYU214QlJSQULgAQD6AQQIABAp!16s%2Fg%2F11n2h0nznl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.743062</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.743062</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.329212</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Fauna+Ketingan/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af743dfe424ab:0xcf7e6dfe1023fcf4!8m2!3d-7.743062!4d110.3292115!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkMjgyY1RKQlJSQULgAQD6AQUIpwMQRg!16s%2Fg%2F11mpyq55lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -581,25 +574,24 @@
           <t>(0274) 496401</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.752021</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.752021</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.491467</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Prambanan/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5ae3dbd859d1:0x19e7a03b25955a2d!8m2!3d-7.7520206!4d110.4914674!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQxoaW5kdV90ZW1wbGXgAQA!16zL20vMDJzMF80?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Prambanan/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5ae3dbd859d1:0x19e7a03b25955a2d!8m2!3d-7.7520206!4d110.4914674!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQxoaW5kdV90ZW1wbGXgAQA!16zL20vMDJzMF80?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>15 menit lalu</t>
         </is>
@@ -622,25 +614,24 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.702833</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.702833</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.44911</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Blue+Lagoon+Jogja/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5c75eba9da15:0xd4d6063b3b163462!8m2!3d-7.7028328!4d110.4491103!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6vhjqrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Blue+Lagoon+Jogja/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5c75eba9da15:0xd4d6063b3b163462!8m2!3d-7.7028328!4d110.4491103!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6vhjqrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -667,25 +658,24 @@
           <t>0812-1278-7778</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.739957</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.739957</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.302408</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Grogol/@-7.7399571,110.1582122,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af667b2b6e245:0xb4395f84bab885f2!8m2!3d-7.7399571!4d110.3024078!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VTVhBMllXOUJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1pzszhb60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Grogol/@-7.7399571,110.1582122,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af667b2b6e245:0xb4395f84bab885f2!8m2!3d-7.7399571!4d110.3024078!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VTVhBMllXOUJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1pzszhb60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -708,25 +698,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.810373</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.810373</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.468686</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Abang/@-7.8103728,110.3244904,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a508b5e9cb8e5:0xe4ec094fa5ffe7d9!8m2!3d-7.8103728!4d110.468686!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F1226mczs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Abang/@-7.8103728,110.3244904,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a508b5e9cb8e5:0xe4ec094fa5ffe7d9!8m2!3d-7.8103728!4d110.468686!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F1226mczs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -745,25 +734,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.704665</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.704665</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.379933</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Tanjung/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5efa540d4767:0x1e414eda10e5df99!8m2!3d-7.704665!4d110.379933!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlOWFpsY0ZKbkVBReABAPoBBAgAEEg!16s%2Fg%2F11bc7qxtyk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -786,25 +774,24 @@
           <t>0881-0100-89990</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>-7.768503</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.768503</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.355459</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sindu+Kusuma+Edupark+(SKE)/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a584281200f8b:0xeed0884f4b2272a8!8m2!3d-7.7685035!4d110.3554593!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11b6vc54pq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -827,25 +814,24 @@
           <t>(0274) 5011201</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.77533</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.77533</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.380453</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kearifan+UGM/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59ca8407bcc9:0xe70fabcb9b44a5ac!8m2!3d-7.7753299!4d110.3804534!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY2t4aVEzTlJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c2nxnz95?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -860,25 +846,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.756227</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.756227</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.415013</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Tambakboyo/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a598356dbaf65:0xd1c1d58cb1d42109!8m2!3d-7.756227!4d110.4150131!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJr4AEA!16s%2Fg%2F11b5v4m_zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Tambakboyo/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a598356dbaf65:0xd1c1d58cb1d42109!8m2!3d-7.756227!4d110.4150131!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJr4AEA!16s%2Fg%2F11b5v4m_zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -897,25 +882,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.751465</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.751465</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.416289</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Gebang/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59786eea3b2f:0x28b240601a68c6ff!8m2!3d-7.7514654!4d110.4162887!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEgQ2hSRFNVaE5NRzluUzBWSlEwRm5TVU15YkZCT1FSQULgAQD6AQQIFxA4!16s%2Fm%2F0crcsdc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Gebang/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59786eea3b2f:0x28b240601a68c6ff!8m2!3d-7.7514654!4d110.4162887!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEgQ2hSRFNVaE5NRzluUzBWSlEwRm5TVU15YkZCT1FSQULgAQD6AQQIFxA4!16s%2Fm%2F0crcsdc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -934,25 +918,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>-7.743895</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.743895</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.331362</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Ketingan/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a589d799a3e27:0xc5b6ee322dbf3041!8m2!3d-7.7438954!4d110.3313615!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJObU5MVGtOUkVBReABAPoBBAgAEEc!16s%2Fg%2F11clyt6gv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Ketingan/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a589d799a3e27:0xc5b6ee322dbf3041!8m2!3d-7.7438954!4d110.3313615!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJObU5MVGtOUkVBReABAPoBBAgAEEc!16s%2Fg%2F11clyt6gv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -975,25 +958,24 @@
           <t>0858-2664-4612</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>-7.817992</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.817992</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.511841</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Teletubbies/@-7.817992,110.3676458,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5025125dea7d:0x18dabce7ce0729c4!8m2!3d-7.817992!4d110.5118414!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy2jf508?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1012,25 +994,24 @@
           <t>0818-0266-6155</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.75148</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.75148</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.335276</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dewi+Rawe/@-7.7514803,110.1910803,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5948c32a00f1:0x893a134c3d2923db!8m2!3d-7.7514803!4d110.3352759!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjViMlJFYzBWQkVBReABAPoBBAgAEEc!16s%2Fg%2F11h5s2r2gd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1045,25 +1026,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.604165</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.604165</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.451004</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Lost+World+Castle/@-7.6041648,110.3068086,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5d9bed435109:0x284f5fe8b2b683c9!8m2!3d-7.6041648!4d110.4510042!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy24lssq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1086,25 +1066,24 @@
           <t>(0274) 496510</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.770542</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.770542</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.489416</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Keraton+Ratu+Boko/@-7.7705416,110.3452202,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a92d354fe45:0x153f44f14476f95b!8m2!3d-7.7705416!4d110.4894158!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fm%2F0264bpk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Keraton+Ratu+Boko/@-7.7705416,110.3452202,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a92d354fe45:0x153f44f14476f95b!8m2!3d-7.7705416!4d110.4894158!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fm%2F0264bpk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1127,25 +1106,24 @@
           <t>0812-1582-7899</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.779558</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.779558</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.328174</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+%22Bedog+Ilir%22/@-7.7795584,110.1839787,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af755ec6c4e07:0x8858c770241fd8e!8m2!3d-7.7795584!4d110.3281743!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmlNM0ZNU1RoM1JSQULgAQD6AQQIEhA1!16s%2Fg%2F11k609xqqp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1160,25 +1138,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.762455</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.762455</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.447045</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Sambisari/@-7.7624548,110.302849,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a39b544a4ab:0xd8f5c2d79ac124f3!8m2!3d-7.7624548!4d110.4470446!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F064kb4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Sambisari/@-7.7624548,110.302849,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a39b544a4ab:0xd8f5c2d79ac124f3!8m2!3d-7.7624548!4d110.4470446!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F064kb4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1197,25 +1174,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.747188</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.747188</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.28157</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Pandawa/@-7.7471878,110.1373745,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af6f65e71cf5b:0x2051af7c1dc34812!8m2!3d-7.7471878!4d110.2815701!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNMDlwVDE5QlJSQULgAQD6AQQIABBC!16s%2Fg%2F11g8_2mlfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Pandawa/@-7.7471878,110.1373745,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af6f65e71cf5b:0x2051af7c1dc34812!8m2!3d-7.7471878!4d110.2815701!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNMDlwVDE5QlJSQULgAQD6AQQIABBC!16s%2Fg%2F11g8_2mlfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1234,25 +1210,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.807137</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.807137</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.432389</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Sendangtirto/@-7.8071372,110.2881937,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5169ce01e2fb:0x3358c3fcbd761a54!8m2!3d-7.8071372!4d110.4323893!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROelJxVkU5M0VBReABAPoBBQiJAxBF!16s%2Fg%2F11rg22hcb3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Sendangtirto/@-7.8071372,110.2881937,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5169ce01e2fb:0x3358c3fcbd761a54!8m2!3d-7.8071372!4d110.4323893!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROelJxVkU5M0VBReABAPoBBQiJAxBF!16s%2Fg%2F11rg22hcb3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1275,25 +1250,24 @@
           <t>0888-2837-133</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.759474</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.759474</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.330832</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sanggar+pathok+bumi+mlangi/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a587f5353f419:0xf80c60c53487c21c!8m2!3d-7.7594736!4d110.3308319!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJibUZUWnpoblJSQULgAQD6AQQIABA8!16s%2Fg%2F11bx1cfyhv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1312,25 +1286,24 @@
           <t>0858-7776-3680</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.750303</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.750303</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.369499</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Pelangi+Jogja/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a58f975c66097:0x99331d342ee5862d!8m2!3d-7.7503027!4d110.3694988!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11x7vl1rr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Pelangi+Jogja/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a58f975c66097:0x99331d342ee5862d!8m2!3d-7.7503027!4d110.3694988!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11x7vl1rr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1357,25 +1330,24 @@
           <t>(0274) 2853556</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.781571</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.781571</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.504583</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tebing+Breksi/@-7.7815714,110.3603871,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5aa458b4665b:0xa4b0fc6ad0ae38c7!8m2!3d-7.7815714!4d110.5045827!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11fzry0lfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tebing+Breksi/@-7.7815714,110.3603871,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5aa458b4665b:0xa4b0fc6ad0ae38c7!8m2!3d-7.7815714!4d110.5045827!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11fzry0lfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -1402,25 +1374,24 @@
           <t>0857-4312-8969</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>-7.625881</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.625881</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.371698</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Pulesari/@-7.6258806,110.2275024,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a607be3e2fd29:0x1bf37c8ecf4f712d!8m2!3d-7.6258806!4d110.371698!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6zwg5ct?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Pulesari/@-7.6258806,110.2275024,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a607be3e2fd29:0x1bf37c8ecf4f712d!8m2!3d-7.6258806!4d110.371698!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6zwg5ct?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1439,25 +1410,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1472,25 +1442,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
